--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13020" windowHeight="3390"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13020" windowHeight="4050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,13 +40,13 @@
     <t>first-name</t>
   </si>
   <si>
-    <t>ngademo123</t>
-  </si>
-  <si>
-    <t>nga@demo12.com</t>
-  </si>
-  <si>
-    <t>nga</t>
+    <t>nashtech1254353</t>
+  </si>
+  <si>
+    <t>nashtech@gmail.com</t>
+  </si>
+  <si>
+    <t>NASH TECH</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
